--- a/xlsx/IBM_intext.xlsx
+++ b/xlsx/IBM_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
   <si>
     <t>IBM</t>
   </si>
@@ -29,25 +29,25 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_美國_IBM</t>
+    <t>政策_政策_美国_IBM</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>電腦軟體</t>
+    <t>电脑软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -107,27 +107,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%AD%97%E6%AF%8D%E7%B8%AE%E7%95%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>首字母縮略字</t>
+    <t>首字母缩略字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E6%AB%83%E5%93%A1%E6%A9%9F</t>
   </si>
   <si>
-    <t>自動櫃員機</t>
+    <t>自动柜员机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E4%BA%A7%E5%93%81%E4%BB%A3%E7%A0%81</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7J%C2%B7%E6%B2%83%E6%A3%AE</t>
   </si>
   <si>
-    <t>托馬斯·J·沃森</t>
+    <t>托马斯·J·沃森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%A4%A7%E9%A5%A5%E8%8D%92</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E7%90%B4</t>
   </si>
   <si>
-    <t>鋼琴</t>
+    <t>钢琴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF%E6%B3%95</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%A9%BA%E7%AE%A1</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E9%AB%94%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>積體電路</t>
+    <t>积体电路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/T._Vincent_Learson</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%93%8B%E8%8C%B2</t>
   </si>
   <si>
-    <t>比爾·蓋茲</t>
+    <t>比尔·盖兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%89%B2%E5%9F%BA%E5%9B%A0</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E7%AB%99</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰霍普金斯大學</t>
+    <t>约翰霍普金斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -395,15 +392,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E8%97%8D_(%E9%9B%BB%E8%85%A6)</t>
   </si>
   <si>
-    <t>深藍 (電腦)</t>
+    <t>深蓝 (电脑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
-    <t>藍色基因</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/History_of_IBM</t>
   </si>
   <si>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/Cell_(%E5%BE%AE%E8%99%95%E7%90%86%E5%99%A8)</t>
   </si>
   <si>
-    <t>Cell (微處理器)</t>
+    <t>Cell (微处理器)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IBM%E5%A4%A7%E5%9E%8B%E4%B8%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>IBM大型主機</t>
+    <t>IBM大型主机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/IBM_Power_Systems</t>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E8%8A%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>蓮花軟體</t>
+    <t>莲花软体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rational_Software</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E8%97%8D_(%E8%B6%85%E7%B4%9A%E9%9B%BB%E8%85%A6)</t>
   </si>
   <si>
-    <t>深藍 (超級電腦)</t>
+    <t>深蓝 (超级电脑)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Navbox</t>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E9%80%9A</t>
   </si>
   <si>
-    <t>美國運通</t>
+    <t>美国运通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Visa</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>強生公司</t>
+    <t>强生公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E8%97%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>默克藥廠</t>
+    <t>默克药厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
@@ -881,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>聯合健康保險</t>
+    <t>联合健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%80%E6%9C%AF%E5%85%AC%E5%8F%B8</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%8E%9B</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%A6%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧馳亞</t>
+    <t>奥驰亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E9%A3%9F%E5%93%81</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美國國際集團</t>
+    <t>美国国际集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%83%9F%E8%8D%89%E5%85%AC%E5%8F%B8</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E5%90%88%E7%A2%B3%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>美國聯合碳化物</t>
+    <t>美国联合碳化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -1025,19 +1019,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%81%E5%A4%A7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>全球二十大半導體廠商</t>
+    <t>全球二十大半导体厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>消費電子產品</t>
+    <t>消费电子产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
@@ -1049,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%A7%BB%E5%8B%95%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>索尼移動通信</t>
+    <t>索尼移动通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%BE%BE%E7%94%B5</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E7%A7%BB%E5%8A%A8</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL</t>
@@ -1139,15 +1133,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>富可視</t>
+    <t>富可视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
   </si>
   <si>
-    <t>个人电脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%B0%94</t>
   </si>
   <si>
@@ -1193,25 +1184,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%99%BA%E5%BA%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富智康集團</t>
+    <t>富智康集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B%E8%B5%84%E9%80%9A</t>
@@ -1223,19 +1214,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英業達集團</t>
+    <t>英业达集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Celestica</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -1295,9 +1286,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -1319,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E8%BE%BE</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%B7%A5%E6%84%9B%E6%99%AE%E7%94%9F</t>
   </si>
   <si>
-    <t>精工愛普生</t>
+    <t>精工爱普生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AB%8B%E5%85%89%E9%9B%BB</t>
   </si>
   <si>
-    <t>大立光電</t>
+    <t>大立光电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%82%A8%E8%AE%BE%E5%A4%87</t>
@@ -1379,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%AE%89%E4%BF%A1</t>
@@ -1397,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E8%A9%A2</t>
   </si>
   <si>
-    <t>諮詢</t>
+    <t>谘询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%88%A4</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%80%9D%E8%89%BE%E4%BC%A6%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -1433,9 +1421,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/CGI_Group</t>
   </si>
   <si>
@@ -1463,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BE%B7%E6%8B%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>英德拉系統</t>
+    <t>英德拉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -1475,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wipro</t>
@@ -1493,13 +1478,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCR%E5%85%AC%E5%8F%B8</t>
@@ -1511,9 +1493,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Network_equipment_provider</t>
   </si>
   <si>
@@ -1523,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9-%E6%9C%97%E8%A8%8A</t>
   </si>
   <si>
-    <t>阿爾卡特-朗訊</t>
+    <t>阿尔卡特-朗讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -1535,19 +1514,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BB%E5%8D%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>瞻博網路</t>
+    <t>瞻博网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E8%A7%A3%E5%86%B3%E6%96%B9%E6%A1%88</t>
@@ -1595,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%80%9A</t>
@@ -1607,55 +1583,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%B3%95%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>意法半導體</t>
+    <t>意法半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%96%A9%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>瑞薩電子</t>
+    <t>瑞萨电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A8%81%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超威半導體</t>
+    <t>超威半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%81%89%E9%81%94</t>
   </si>
   <si>
-    <t>英偉達</t>
+    <t>英伟达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%80%9D%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>海思半導體</t>
+    <t>海思半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%99%BC%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>聯發科技</t>
+    <t>联发科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%80%9D%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>飛思卡爾</t>
+    <t>飞思卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%A3%9B%E5%87%8C</t>
   </si>
   <si>
-    <t>英飛凌</t>
+    <t>英飞凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BB%A1%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
@@ -1673,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%BE%8E%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -1685,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LSI%E5%85%AC%E5%8F%B8</t>
@@ -1697,43 +1673,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%85%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>紫光集團</t>
+    <t>紫光集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AC%80%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>安謀控股</t>
+    <t>安谋控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E5%9C%93%E4%BB%A3%E5%B7%A5</t>
   </si>
   <si>
-    <t>晶圓代工</t>
+    <t>晶圆代工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>台積電</t>
+    <t>台积电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%8F%AF%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>聯華電子</t>
+    <t>联华电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>格羅方德</t>
+    <t>格罗方德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8A%AF%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>中芯國際</t>
+    <t>中芯国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%99%B6%E7%A7%91%E6%8A%80</t>
@@ -1763,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EBay</t>
@@ -1775,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/Priceline%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Priceline集團</t>
+    <t>Priceline集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Groupon</t>
@@ -1799,13 +1775,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%80%94%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓途鷹</t>
+    <t>猫途鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Expedia%E5%85%AC%E5%8F%B8</t>
@@ -1877,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社群網路</t>
+    <t>社群网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -1889,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B0%E8%A8%8A</t>
   </si>
   <si>
-    <t>騰訊</t>
+    <t>腾讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -1901,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
@@ -1919,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93</t>
@@ -1955,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP%E5%85%AC%E5%8F%B8</t>
@@ -1967,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%96%80%E9%90%B5%E5%85%8B</t>
   </si>
   <si>
-    <t>賽門鐵克</t>
+    <t>赛门铁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VMware</t>
@@ -1997,13 +1973,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E9%80%A3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>訊連科技</t>
+    <t>讯连科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94</t>
@@ -2021,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
@@ -2045,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -2063,13 +2039,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中國電信</t>
+    <t>中国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -2093,19 +2069,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -2141,19 +2117,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%97%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>維旺迪</t>
+    <t>维旺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中華電信</t>
+    <t>中华电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>荷蘭皇家電信</t>
+    <t>荷兰皇家电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -2183,13 +2159,13 @@
     <t>https://zh.wikipedia.org/wiki/3_(%E9%9B%BB%E8%A8%8A)</t>
   </si>
   <si>
-    <t>3 (電訊)</t>
+    <t>3 (电讯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>新加坡電信</t>
+    <t>新加坡电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Etisalat</t>
@@ -2213,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E7%9B%88%E7%A7%91</t>
   </si>
   <si>
-    <t>電訊盈科</t>
+    <t>电讯盈科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -2225,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E4%BB%A3%E5%8D%97%E6%A2%A6%E5%AE%AB%E5%A8%B1%E4%B9%90</t>
@@ -2267,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCsoft</t>
@@ -2309,9 +2285,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF</t>
   </si>
   <si>
-    <t>腾讯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A2%A7</t>
   </si>
   <si>
@@ -2321,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E5%AD%97%E6%9C%BA</t>
@@ -2333,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%84%E5%BC%9F%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>兄弟工業</t>
+    <t>兄弟工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Commodore%E5%9B%BD%E9%99%85</t>
@@ -2351,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%88%A9%E7%8D%B2%E5%BE%97</t>
   </si>
   <si>
-    <t>好利獲得</t>
+    <t>好利获得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%8E%B1%E7%91%9F%E5%A7%86%C2%B7%E8%82%96%E5%B0%94%E6%96%AF</t>
@@ -2369,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/QWERTY%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>QWERTY鍵盤</t>
+    <t>QWERTY键盘</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3035,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3233,7 +3206,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3259,10 +3232,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3288,10 +3261,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3317,10 +3290,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3346,10 +3319,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -3375,10 +3348,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3404,10 +3377,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -3433,10 +3406,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3462,10 +3435,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3491,10 +3464,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3520,10 +3493,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>21</v>
@@ -3549,10 +3522,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3578,10 +3551,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -3607,10 +3580,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3636,10 +3609,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3665,10 +3638,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3694,10 +3667,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3723,10 +3696,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3752,10 +3725,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3781,10 +3754,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3810,10 +3783,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3839,10 +3812,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3868,10 +3841,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3897,10 +3870,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3926,10 +3899,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3955,10 +3928,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3984,10 +3957,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4013,10 +3986,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4042,10 +4015,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4071,10 +4044,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -4100,10 +4073,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4129,10 +4102,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4158,10 +4131,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -4187,10 +4160,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4216,10 +4189,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -4245,10 +4218,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4303,10 +4276,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -4332,10 +4305,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4361,10 +4334,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4390,10 +4363,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -4419,10 +4392,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4448,10 +4421,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4477,10 +4450,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4506,10 +4479,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -4535,10 +4508,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4564,10 +4537,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4593,10 +4566,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4622,10 +4595,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4651,10 +4624,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4680,10 +4653,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4709,10 +4682,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4738,10 +4711,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4767,10 +4740,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4796,10 +4769,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4825,10 +4798,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4854,10 +4827,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4883,10 +4856,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4912,10 +4885,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4941,10 +4914,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4970,10 +4943,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4999,10 +4972,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5028,10 +5001,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5057,10 +5030,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5086,10 +5059,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5115,10 +5088,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5144,10 +5117,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5173,10 +5146,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5202,10 +5175,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5231,10 +5204,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5260,10 +5233,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5289,10 +5262,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5318,10 +5291,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5347,10 +5320,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5376,10 +5349,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5405,10 +5378,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5434,10 +5407,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5463,10 +5436,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5492,10 +5465,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5521,10 +5494,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5550,10 +5523,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5579,10 +5552,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5608,10 +5581,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5637,10 +5610,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5666,10 +5639,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5695,10 +5668,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5724,10 +5697,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5753,10 +5726,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5782,10 +5755,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5811,10 +5784,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5840,10 +5813,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5869,10 +5842,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5898,10 +5871,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5927,10 +5900,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5956,10 +5929,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5985,10 +5958,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6014,10 +5987,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6043,10 +6016,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6072,10 +6045,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>8</v>
@@ -6101,10 +6074,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6130,10 +6103,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6159,10 +6132,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6188,10 +6161,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6217,10 +6190,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6246,10 +6219,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6275,10 +6248,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6304,10 +6277,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6333,10 +6306,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6362,10 +6335,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6391,10 +6364,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6420,10 +6393,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6449,10 +6422,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6478,10 +6451,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6507,10 +6480,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6536,10 +6509,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6565,10 +6538,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6594,10 +6567,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6623,10 +6596,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6652,10 +6625,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6681,10 +6654,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6710,10 +6683,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6739,10 +6712,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6768,10 +6741,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6797,10 +6770,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6826,10 +6799,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6855,10 +6828,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6884,10 +6857,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6913,10 +6886,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6942,10 +6915,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6971,10 +6944,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7000,10 +6973,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7029,10 +7002,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7058,10 +7031,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7087,10 +7060,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7116,10 +7089,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7145,10 +7118,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7174,10 +7147,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7203,10 +7176,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7232,10 +7205,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7261,10 +7234,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7290,10 +7263,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7319,10 +7292,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7348,10 +7321,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7377,10 +7350,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7406,10 +7379,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7435,10 +7408,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7464,10 +7437,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -7493,10 +7466,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7522,10 +7495,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7551,10 +7524,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -7580,10 +7553,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7609,10 +7582,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7638,10 +7611,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7667,10 +7640,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7696,10 +7669,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7725,10 +7698,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7754,10 +7727,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F174" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -7783,10 +7756,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7812,10 +7785,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7841,10 +7814,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7870,10 +7843,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7899,10 +7872,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7928,10 +7901,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7957,10 +7930,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7986,10 +7959,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8015,10 +7988,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8044,10 +8017,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8073,10 +8046,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8102,10 +8075,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8131,10 +8104,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8160,10 +8133,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8189,10 +8162,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8218,10 +8191,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8247,10 +8220,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8276,10 +8249,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8305,10 +8278,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>114</v>
+      </c>
+      <c r="F193" t="s">
         <v>115</v>
-      </c>
-      <c r="F193" t="s">
-        <v>116</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8334,10 +8307,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8363,10 +8336,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8392,10 +8365,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8421,10 +8394,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8450,10 +8423,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8479,10 +8452,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -8508,10 +8481,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8537,10 +8510,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8566,10 +8539,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8595,10 +8568,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8624,10 +8597,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8653,10 +8626,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8682,10 +8655,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8711,10 +8684,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8740,10 +8713,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8769,10 +8742,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8798,10 +8771,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8827,10 +8800,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8856,10 +8829,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8885,10 +8858,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8914,10 +8887,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8943,10 +8916,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8972,10 +8945,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9001,10 +8974,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9030,10 +9003,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="G218" t="n">
         <v>6</v>
@@ -9059,10 +9032,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9088,10 +9061,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -9117,10 +9090,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9146,10 +9119,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9175,10 +9148,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9204,10 +9177,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F224" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9233,10 +9206,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9262,10 +9235,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9291,10 +9264,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9320,10 +9293,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9349,10 +9322,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9378,10 +9351,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9407,10 +9380,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9436,10 +9409,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9465,10 +9438,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9494,10 +9467,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9523,10 +9496,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9552,10 +9525,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9581,10 +9554,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9610,10 +9583,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9639,10 +9612,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -9668,10 +9641,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9697,10 +9670,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9726,10 +9699,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>234</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9755,10 +9728,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9784,10 +9757,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9813,10 +9786,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9842,10 +9815,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9871,10 +9844,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9900,10 +9873,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9929,10 +9902,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9958,10 +9931,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9987,10 +9960,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10016,10 +9989,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -10045,10 +10018,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10074,10 +10047,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -10103,10 +10076,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>381</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10132,10 +10105,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10161,10 +10134,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10190,10 +10163,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10219,10 +10192,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10248,10 +10221,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>342</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10277,10 +10250,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10306,10 +10279,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10335,10 +10308,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10364,10 +10337,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10393,10 +10366,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10422,10 +10395,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F266" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10451,10 +10424,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10480,10 +10453,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10509,10 +10482,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10538,10 +10511,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10567,10 +10540,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10596,10 +10569,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10625,10 +10598,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10654,10 +10627,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10683,10 +10656,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10712,10 +10685,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F276" t="s">
-        <v>508</v>
+        <v>342</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10741,10 +10714,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10770,10 +10743,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10799,10 +10772,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10828,10 +10801,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10857,10 +10830,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10886,10 +10859,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10915,10 +10888,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10944,10 +10917,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10973,10 +10946,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11002,10 +10975,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11031,10 +11004,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11060,10 +11033,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11089,10 +11062,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11118,10 +11091,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11147,10 +11120,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11176,10 +11149,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11205,10 +11178,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11234,10 +11207,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11263,10 +11236,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11292,10 +11265,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11321,10 +11294,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11350,10 +11323,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11379,10 +11352,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11408,10 +11381,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11437,10 +11410,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11466,10 +11439,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11495,10 +11468,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11524,10 +11497,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11553,10 +11526,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11582,10 +11555,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11611,10 +11584,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11640,10 +11613,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11669,10 +11642,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11698,10 +11671,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11727,10 +11700,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11756,10 +11729,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11785,10 +11758,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11814,10 +11787,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11843,10 +11816,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11872,10 +11845,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11901,10 +11874,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11930,10 +11903,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11959,10 +11932,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11988,10 +11961,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12017,10 +11990,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12046,10 +12019,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12075,10 +12048,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12104,10 +12077,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12133,10 +12106,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12162,10 +12135,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12191,10 +12164,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12220,10 +12193,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12249,10 +12222,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12278,10 +12251,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -12307,10 +12280,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -12336,10 +12309,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12365,10 +12338,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12394,10 +12367,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12423,10 +12396,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12452,10 +12425,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12481,10 +12454,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12510,10 +12483,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12539,10 +12512,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12568,10 +12541,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12597,10 +12570,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12626,10 +12599,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -12655,10 +12628,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12684,10 +12657,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F344" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12713,10 +12686,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F345" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12742,10 +12715,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12771,10 +12744,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12800,10 +12773,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12829,10 +12802,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12858,10 +12831,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12887,10 +12860,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12916,10 +12889,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12945,10 +12918,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12974,10 +12947,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13003,10 +12976,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13032,10 +13005,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13061,10 +13034,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13090,10 +13063,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13119,10 +13092,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13148,10 +13121,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13177,10 +13150,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13206,10 +13179,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13235,10 +13208,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13264,10 +13237,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13293,10 +13266,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13322,10 +13295,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13351,10 +13324,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13380,10 +13353,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13409,10 +13382,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13438,10 +13411,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13467,10 +13440,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13496,10 +13469,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13525,10 +13498,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13554,10 +13527,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13583,10 +13556,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13612,10 +13585,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13641,10 +13614,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13670,10 +13643,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13699,10 +13672,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13728,10 +13701,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13757,10 +13730,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13786,10 +13759,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13815,10 +13788,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13844,10 +13817,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13873,10 +13846,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13902,10 +13875,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13931,10 +13904,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13960,10 +13933,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13989,10 +13962,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14018,10 +13991,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14047,10 +14020,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>616</v>
       </c>
       <c r="G391" t="n">
         <v>3</v>
@@ -14076,10 +14049,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14105,10 +14078,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14134,10 +14107,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G394" t="n">
         <v>10</v>
@@ -14163,10 +14136,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14192,10 +14165,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14221,10 +14194,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14250,10 +14223,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14279,10 +14252,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14308,10 +14281,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14337,10 +14310,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
